--- a/GeneticProgramming/dataset.xlsx
+++ b/GeneticProgramming/dataset.xlsx
@@ -16,17 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>answer</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x2</t>
+    <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -373,143 +369,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <f>3*A2*A2-2*A2+1</f>
         <v>2</v>
       </c>
-      <c r="C2">
-        <f>2*A2+3*B2-1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">2*A3+3*B3-1</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B3:B11" si="0">3*A3*A3-2*A3+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
     </row>
   </sheetData>
